--- a/CIUS/data/base/コアインボイス.xlsx
+++ b/CIUS/data/base/コアインボイス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\eclipse-workspace\japan-core\CIUS\data\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59114B-898C-4177-9422-723F85EFFEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CDA3C6-FE04-4566-8E63-0DA573BADC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{465B7231-AC82-4233-848A-496D64081167}"/>
   </bookViews>
@@ -10758,9 +10758,6 @@
     <t>card</t>
   </si>
   <si>
-    <t>ibt-147a</t>
-  </si>
-  <si>
     <t>/Invoice/cac:AllowanceCharge[cbc:ChargeIndicator=false()]/cbc:ChargeIndicator</t>
   </si>
   <si>
@@ -10807,6 +10804,9 @@
   </si>
   <si>
     <t>/Invoice/cac:AccountingSupplierParty/cac:Party/cac:PartyLegalEntity/cbc:CompanyID/@schemeID</t>
+  </si>
+  <si>
+    <t>ibt-147b</t>
   </si>
 </sst>
 </file>
@@ -10883,7 +10883,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10899,6 +10899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11088,7 +11094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11595,8 +11601,8 @@
   <dimension ref="A1:O451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1048576"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30347,8 +30353,8 @@
   <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.95" customHeight="1"/>
@@ -31251,8 +31257,8 @@
       <c r="C21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
+      <c r="D21" s="30">
+        <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>1942</v>
@@ -32114,16 +32120,16 @@
         <v>1390</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="30">
+        <v>3</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>3532</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="3">
-        <v>3</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>3533</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>1944</v>
@@ -32141,7 +32147,7 @@
         <v>3089</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>69</v>
@@ -32185,7 +32191,7 @@
         <v>3089</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>69</v>
@@ -32196,7 +32202,7 @@
         <v>1405</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>69</v>
@@ -32223,7 +32229,7 @@
         <v>3089</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>69</v>
@@ -32267,7 +32273,7 @@
         <v>3089</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>69</v>
@@ -32305,7 +32311,7 @@
         <v>3089</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>69</v>
@@ -32409,7 +32415,7 @@
       <c r="C48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="30">
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -33192,7 +33198,7 @@
       <c r="C66" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="30">
         <v>3</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -33280,7 +33286,7 @@
       <c r="C68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="30">
         <v>3</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -33450,7 +33456,7 @@
       <c r="C72" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="30">
         <v>3</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -34145,8 +34151,8 @@
       <c r="C88" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="3">
-        <v>2</v>
+      <c r="D88" s="30">
+        <v>3</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>2193</v>
@@ -34233,7 +34239,7 @@
       <c r="C90" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="30">
         <v>3</v>
       </c>
       <c r="E90" s="5" t="s">
@@ -34401,7 +34407,7 @@
         <v>1885</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>56</v>
@@ -34410,7 +34416,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="3" t="s">
@@ -34428,7 +34434,7 @@
         <v>3089</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="N94" s="7" t="s">
         <v>69</v>
@@ -34922,8 +34928,8 @@
       <c r="C106" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D106" s="3">
-        <v>2</v>
+      <c r="D106" s="30">
+        <v>3</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>2271</v>
@@ -35617,8 +35623,8 @@
       <c r="C122" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D122" s="3">
-        <v>2</v>
+      <c r="D122" s="30">
+        <v>3</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>2325</v>
@@ -35705,7 +35711,7 @@
       <c r="C124" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="30">
         <v>3</v>
       </c>
       <c r="E124" s="5" t="s">
@@ -35834,8 +35840,8 @@
       <c r="C127" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D127" s="3">
-        <v>3</v>
+      <c r="D127" s="30">
+        <v>4</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>2364</v>
@@ -36897,7 +36903,7 @@
         <v>3257</v>
       </c>
       <c r="M151" s="11" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="N151" s="7" t="s">
         <v>56</v>
@@ -37178,7 +37184,7 @@
         <v>56</v>
       </c>
       <c r="D158" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>2520</v>
@@ -37407,7 +37413,7 @@
         <v>3257</v>
       </c>
       <c r="M163" s="11" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="N163" s="7" t="s">
         <v>56</v>
@@ -39107,7 +39113,7 @@
       <c r="C203" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203" s="30">
         <v>3</v>
       </c>
       <c r="E203" s="5" t="s">
@@ -39151,7 +39157,7 @@
       <c r="C204" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="30">
         <v>3</v>
       </c>
       <c r="E204" s="5" t="s">
@@ -39541,7 +39547,7 @@
       <c r="C213" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213" s="30">
         <v>3</v>
       </c>
       <c r="E213" s="5" t="s">
@@ -39629,8 +39635,8 @@
       <c r="C215" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D215" s="3">
-        <v>2</v>
+      <c r="D215" s="30">
+        <v>3</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>2708</v>
@@ -40085,7 +40091,7 @@
         <v>3257</v>
       </c>
       <c r="M225" s="11" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="N225" s="7" t="s">
         <v>56</v>
@@ -40384,7 +40390,7 @@
         <v>3257</v>
       </c>
       <c r="M232" s="11" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="N232" s="7" t="s">
         <v>56</v>
@@ -40700,7 +40706,7 @@
         <v>3255</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>3518</v>
+        <v>3534</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>56</v>
@@ -40718,7 +40724,7 @@
       <c r="H240" s="11"/>
       <c r="I240" s="11"/>
       <c r="J240" s="11">
-        <v>4520</v>
+        <v>4525</v>
       </c>
       <c r="K240" s="11" t="s">
         <v>3252</v>
@@ -40727,7 +40733,7 @@
         <v>3257</v>
       </c>
       <c r="M240" s="11" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="N240" s="7" t="s">
         <v>56</v>
@@ -40875,8 +40881,8 @@
       <c r="C244" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D244" s="3">
-        <v>3</v>
+      <c r="D244" s="30">
+        <v>4</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>2936</v>
@@ -41485,7 +41491,7 @@
       <c r="C258" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D258" s="3">
+      <c r="D258" s="30">
         <v>4</v>
       </c>
       <c r="E258" s="13" t="s">
@@ -41573,7 +41579,7 @@
       <c r="C260" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D260" s="3">
+      <c r="D260" s="30">
         <v>4</v>
       </c>
       <c r="E260" s="5" t="s">
@@ -41617,7 +41623,7 @@
       <c r="C261" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D261" s="3">
+      <c r="D261" s="30">
         <v>4</v>
       </c>
       <c r="E261" s="5" t="s">
